--- a/数据整理/stocks/A股/上证主板/600237-铜峰电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600237-铜峰电子.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,13 +901,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>5.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600237-铜峰电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600237-铜峰电子.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -1143,13 +1238,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>5.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600237-铜峰电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600237-铜峰电子.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519712</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银阿尔法核心混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>64.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9070</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519697</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银优势行业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>59.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7156</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -580,264 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009539</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴业睿进混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9275</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银施罗德持续成长主题混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>29.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>76.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8880</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010460</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴业研究精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1163</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011448</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银证券均衡成长混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.61</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1087</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011449</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银证券均衡成长混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.61</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0308</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009540</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>兴业睿进混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001866</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
+      <c r="D4" t="n">
+        <v>5.71</v>
       </c>
     </row>
   </sheetData>
@@ -846,6 +532,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1091,13 +871,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,88 +928,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001866</t>
+          <t>519712</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
+          <t>交银阿尔法核心混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>64.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.81</t>
+          <t>77.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>1.9070</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1238,14 +966,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1254,14 +1004,264 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8880</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
-        <v>5.71</v>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
